--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_9_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_9_sawtooth_0.1_.xlsx
@@ -587,63 +587,63 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5539647042047059</v>
+        <v>0.7109059811527194</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5539647042047059</v>
+        <v>0.7109059811527194</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>4.08503160656674</v>
+        <v>3.155673832846288</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-5.825766354297952, 13.995829567431432]</t>
+          <t>[-7.163826612312384, 13.47517427800496]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.4108237695327519</v>
+        <v>0.5410588463476371</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4108237695327519</v>
+        <v>0.5410588463476371</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.509473947670771</v>
+        <v>-0.6918422260157699</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.647921863869583, 1.628973968528041]</t>
+          <t>[-3.8240006674326206, 2.4403162154010807]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.3378693037427642</v>
+        <v>0.6585374292306385</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3378693037427642</v>
+        <v>0.6585374292306385</v>
       </c>
       <c r="T2" t="n">
-        <v>15.73308435495657</v>
+        <v>14.43448211463249</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[10.197738873455371, 21.26842983645777]</t>
+          <t>[8.905947884412932, 19.963016344852054]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>7.988133929881513e-07</v>
+        <v>3.870457323307264e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>7.988133929881513e-07</v>
+        <v>3.870457323307264e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>6.24384384384399</v>
+        <v>2.86176176176183</v>
       </c>
       <c r="Y2" t="n">
-        <v>-6.738148148148312</v>
+        <v>-10.09421421421446</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.22583583583629</v>
+        <v>15.81773773773812</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -673,63 +673,63 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5548828338334193</v>
+        <v>0.04076396158379902</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5548828338334193</v>
+        <v>0.04076396158379902</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>3.940358998750354</v>
+        <v>7.623535835370946</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-5.765958465552104, 13.646676463052813]</t>
+          <t>[0.0191229782517901, 15.227948692490102]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.4178700985453017</v>
+        <v>0.04945062882090778</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4178700985453017</v>
+        <v>0.04945062882090778</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.459158149415079</v>
+        <v>-1.94973718240808</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.597606065613891, 1.6792897667837332]</t>
+          <t>[-3.4340532309510046, -0.4654211338651546]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.3540571526917795</v>
+        <v>0.01119148083301558</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3540571526917795</v>
+        <v>0.01119148083301558</v>
       </c>
       <c r="T3" t="n">
-        <v>15.66655845322975</v>
+        <v>12.85329056456845</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[10.307635976052481, 21.02548093040702]</t>
+          <t>[8.660955707643197, 17.045625421493696]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.575415648577774e-07</v>
+        <v>1.71568766749175e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>4.575415648577774e-07</v>
+        <v>1.71568766749175e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>6.03571571571586</v>
+        <v>8.06496496496516</v>
       </c>
       <c r="Y3" t="n">
-        <v>-6.946276276276443</v>
+        <v>1.925185185185234</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.01770770770816</v>
+        <v>14.20474474474508</v>
       </c>
     </row>
     <row r="4">
@@ -759,63 +759,63 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04310099547769719</v>
+        <v>0.7383299622524367</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04310099547769719</v>
+        <v>0.7383299622524367</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>8.556451364504149</v>
+        <v>3.111591290551689</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-0.25728023288987956, 17.370182961898177]</t>
+          <t>[-7.690282177055079, 13.913464758158458]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.05677380283317235</v>
+        <v>0.5646850458635027</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05677380283317235</v>
+        <v>0.5646850458635027</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.22015810770054</v>
+        <v>-1.685579241565695</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-2.792526803190927, 0.3522105877898478]</t>
+          <t>[-4.824027157764508, 1.4528686746331179]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.125071717190758</v>
+        <v>0.2851385735604794</v>
       </c>
       <c r="S4" t="n">
-        <v>0.125071717190758</v>
+        <v>0.2851385735604794</v>
       </c>
       <c r="T4" t="n">
-        <v>15.39299431208672</v>
+        <v>17.06270539881688</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[10.489075879793814, 20.296912744379625]</t>
+          <t>[11.208426087727293, 22.916984709906476]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.03691594643962e-07</v>
+        <v>4.863517841791065e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>1.03691594643962e-07</v>
+        <v>4.863517841791065e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>5.047107107107223</v>
+        <v>6.972292292292462</v>
       </c>
       <c r="Y4" t="n">
-        <v>-1.456896896896939</v>
+        <v>-6.009699699699844</v>
       </c>
       <c r="Z4" t="n">
-        <v>11.55111111111139</v>
+        <v>19.95428428428477</v>
       </c>
     </row>
     <row r="5">
@@ -845,63 +845,63 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6146656322872818</v>
+        <v>0.7590539259104988</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6146656322872818</v>
+        <v>0.7590539259104988</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>2.721362091059189</v>
+        <v>2.63010279743795</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-4.6119476436582225, 10.0546718257766]</t>
+          <t>[-6.997031379040538, 12.257236973916438]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.4586946161133716</v>
+        <v>0.5848713205197955</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4586946161133716</v>
+        <v>0.5848713205197955</v>
       </c>
       <c r="P5" t="n">
-        <v>2.823974177100735</v>
+        <v>-2.012631930227695</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.3018947895341544, 5.949843143735624]</t>
+          <t>[-5.151079846426507, 1.1258159859711174]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.07547909960059496</v>
+        <v>0.203087331125378</v>
       </c>
       <c r="S5" t="n">
-        <v>0.07547909960059496</v>
+        <v>0.203087331125378</v>
       </c>
       <c r="T5" t="n">
-        <v>9.609435090262558</v>
+        <v>14.93813105146852</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[5.745651101906791, 13.473219078618325]</t>
+          <t>[9.869570997867825, 20.006691105069216]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>8.922060053873082e-06</v>
+        <v>3.885656776336788e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>8.922060053873082e-06</v>
+        <v>3.885656776336788e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>14.30880880880915</v>
+        <v>8.325125125125322</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.378848848848882</v>
+        <v>-4.656866866866981</v>
       </c>
       <c r="Z5" t="n">
-        <v>27.23876876876942</v>
+        <v>21.30711711711762</v>
       </c>
     </row>
     <row r="6">
@@ -925,73 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22</v>
+        <v>22.86000000000013</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08257317588359359</v>
+        <v>0.3567271136453359</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08257317588359359</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.002800511599526878</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.002800511599526878</v>
-      </c>
+        <v>0.3567271136453359</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>6.03449666532003</v>
+        <v>4.159728135172344</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-0.5093561238611226, 12.578349454501183]</t>
+          <t>[-3.0570956535816283, 11.376551923926316]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.06981573069150482</v>
+        <v>0.2517977923193542</v>
       </c>
       <c r="O6" t="n">
-        <v>0.06981573069150482</v>
+        <v>0.2517977923193542</v>
       </c>
       <c r="P6" t="n">
-        <v>2.924605773612119</v>
+        <v>-3.069263693597235</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.3396581285578093, 4.50955341866643]</t>
+          <t>[-6.207711609796047, 0.06918422260157708]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0005565595289973579</v>
+        <v>0.05504622632488809</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0005565595289973579</v>
+        <v>0.05504622632488809</v>
       </c>
       <c r="T6" t="n">
-        <v>12.03814453507581</v>
+        <v>11.52758037854033</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[8.151013865576672, 15.925275204574952]</t>
+          <t>[7.363332621476911, 15.691828135603743]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.385296104494671e-07</v>
+        <v>1.326437543580639e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.385296104494671e-07</v>
+        <v>1.326437543580639e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>11.75975975975976</v>
+        <v>11.16684684684691</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.21021021021021</v>
+        <v>-0.2517117117117138</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.30930930930931</v>
+        <v>22.58540540540553</v>
       </c>
     </row>
     <row r="7">
@@ -999,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1015,73 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22</v>
+        <v>22.86000000000013</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1245103002860126</v>
+        <v>0.01092753114853739</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1245103002860126</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.006226600208626865</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.006226600208626865</v>
-      </c>
+        <v>0.01092753114853739</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>7.049574300961599</v>
+        <v>10.34053816623389</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-2.063042787072625, 16.162191388995822]</t>
+          <t>[2.212026248775807, 18.469050083691968]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1262101579099328</v>
+        <v>0.01381913970804138</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1262101579099328</v>
+        <v>0.01381913970804138</v>
       </c>
       <c r="P7" t="n">
-        <v>2.798816277972889</v>
+        <v>-2.956053147521927</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.6981317007977319, 4.8995008551480455]</t>
+          <t>[-4.075579658711083, -1.836526636332772]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.01015874374670256</v>
+        <v>3.167789150992917e-06</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01015874374670256</v>
+        <v>3.167789150992917e-06</v>
       </c>
       <c r="T7" t="n">
-        <v>13.57498499717435</v>
+        <v>16.01325918378441</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[8.594433103947175, 18.555536890401527]</t>
+          <t>[11.266227627456743, 20.76029074011207]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.774622274020032e-06</v>
+        <v>2.058845627317396e-08</v>
       </c>
       <c r="W7" t="n">
-        <v>1.774622274020032e-06</v>
+        <v>2.058845627317396e-08</v>
       </c>
       <c r="X7" t="n">
-        <v>12.2002002002002</v>
+        <v>10.75495495495502</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.844844844844846</v>
+        <v>6.681801801801839</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.55555555555555</v>
+        <v>14.82810810810819</v>
       </c>
     </row>
     <row r="8">
@@ -1105,73 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>22.86000000000013</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5329876336182946</v>
+        <v>0.7218370469745605</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5329876336182946</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.07909067868253161</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.07909067868253161</v>
-      </c>
+        <v>0.7218370469745605</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.081193151203923</v>
+        <v>2.253837207735103</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-5.721774182962665, 13.884160485370511]</t>
+          <t>[-5.097330489410172, 9.605004904880378]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.4061731053772037</v>
+        <v>0.5400071229822589</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4061731053772037</v>
+        <v>0.5400071229822589</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.691895206679543</v>
+        <v>3.037816319687427</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-5.824053648096393, 0.44026323473730766]</t>
+          <t>[-0.08805264694746207, 6.163685286322317]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.09030470901839771</v>
+        <v>0.05652397561660916</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09030470901839771</v>
+        <v>0.05652397561660916</v>
       </c>
       <c r="T8" t="n">
-        <v>12.84789796949819</v>
+        <v>10.19001389453205</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[7.647795808987744, 18.04800013000864]</t>
+          <t>[6.142644445606528, 14.237383343457577]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>9.95579682805392e-06</v>
+        <v>7.262445536060369e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>9.95579682805392e-06</v>
+        <v>7.262445536060369e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>9.425425425425425</v>
+        <v>11.80756756756764</v>
       </c>
       <c r="Y8" t="n">
-        <v>-1.541541541541541</v>
+        <v>0.4347747747747768</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.39239239239239</v>
+        <v>23.1803603603605</v>
       </c>
     </row>
     <row r="9">
@@ -1195,73 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22</v>
+        <v>22.86000000000013</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1630240452731663</v>
+        <v>0.4782253801701852</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1630240452731663</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7334073507428791</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.7334073507428791</v>
-      </c>
+        <v>0.4782253801701852</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>8.000304776575698</v>
+        <v>3.522974311910819</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-2.0867427958877514, 18.087352349039147]</t>
+          <t>[-4.02603437565126, 11.0719829994729]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1171672181186578</v>
+        <v>0.3522653563627116</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1171672181186578</v>
+        <v>0.3522653563627116</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.74847398938531</v>
+        <v>-2.012631930227695</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-3.679342747447506, 0.1823947686768852]</t>
+          <t>[-5.151079846426507, 1.1258159859711174]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.07482058276742798</v>
+        <v>0.203087331125378</v>
       </c>
       <c r="S9" t="n">
-        <v>0.07482058276742798</v>
+        <v>0.203087331125378</v>
       </c>
       <c r="T9" t="n">
-        <v>14.28559985108834</v>
+        <v>12.43333192504883</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[8.628171085107043, 19.943028617069643]</t>
+          <t>[8.402465725757096, 16.464198124340555]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>6.90890701182667e-06</v>
+        <v>1.508884979184444e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>6.90890701182667e-06</v>
+        <v>1.508884979184444e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>6.122122122122121</v>
+        <v>7.322522522522563</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.63863863863864</v>
+        <v>-4.096036036036061</v>
       </c>
       <c r="Z9" t="n">
-        <v>12.88288288288288</v>
+        <v>18.74108108108119</v>
       </c>
     </row>
     <row r="10">
@@ -1285,73 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22</v>
+        <v>22.86000000000013</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5544314930327823</v>
+        <v>0.8374859948050791</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5544314930327823</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.9071847070875858</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.9071847070875858</v>
-      </c>
+        <v>0.8374859948050791</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>3.819285497736422</v>
+        <v>2.287364830771431</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-5.802524533435708, 13.441095528908551]</t>
+          <t>[-7.669750028773936, 12.244479690316798]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.428212710691289</v>
+        <v>0.645821145788406</v>
       </c>
       <c r="O10" t="n">
-        <v>0.428212710691289</v>
+        <v>0.645821145788406</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.9811580659860013</v>
+        <v>-1.647842392873925</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-4.119605982184813, 2.157289850212811]</t>
+          <t>[-4.786290309072737, 1.490605523324887]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.5321014486744113</v>
+        <v>0.2959251409707098</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5321014486744113</v>
+        <v>0.2959251409707098</v>
       </c>
       <c r="T10" t="n">
-        <v>13.87779605175893</v>
+        <v>14.45751623646423</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[8.883705036400595, 18.871887067117257]</t>
+          <t>[9.11962184875211, 19.795410624176355]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.233561049085452e-06</v>
+        <v>1.994488884271561e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>1.233561049085452e-06</v>
+        <v>1.994488884271561e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>3.435435435435434</v>
+        <v>5.995315315315349</v>
       </c>
       <c r="Y10" t="n">
-        <v>-7.553553553553554</v>
+        <v>-5.423243243243276</v>
       </c>
       <c r="Z10" t="n">
-        <v>14.42442442442442</v>
+        <v>17.41387387387397</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_9_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_9_sawtooth_0.1_.xlsx
@@ -587,63 +587,63 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7109059811527194</v>
+        <v>0.1685657118168993</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7109059811527194</v>
+        <v>0.1685657118168993</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>3.155673832846288</v>
+        <v>5.501706278301167</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-7.163826612312384, 13.47517427800496]</t>
+          <t>[-1.6356243350071225, 12.639036891609456]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.5410588463476371</v>
+        <v>0.1275380295765718</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5410588463476371</v>
+        <v>0.1275380295765718</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.6918422260157699</v>
+        <v>-1.559789745926464</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.8240006674326206, 2.4403162154010807]</t>
+          <t>[-3.717079596139275, 0.5975001042863468]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.6585374292306385</v>
+        <v>0.1522626183904059</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6585374292306385</v>
+        <v>0.1522626183904059</v>
       </c>
       <c r="T2" t="n">
-        <v>14.43448211463249</v>
+        <v>12.95462549387966</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[8.905947884412932, 19.963016344852054]</t>
+          <t>[8.721853445790096, 17.187397541969226]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.870457323307264e-06</v>
+        <v>1.780138094709116e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>3.870457323307264e-06</v>
+        <v>1.780138094709116e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>2.86176176176183</v>
+        <v>6.451971971972128</v>
       </c>
       <c r="Y2" t="n">
-        <v>-10.09421421421446</v>
+        <v>-2.471521521521579</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.81773773773812</v>
+        <v>15.37546546546583</v>
       </c>
     </row>
     <row r="3">
@@ -673,63 +673,63 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04076396158379902</v>
+        <v>0.003474583529525122</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04076396158379902</v>
+        <v>0.003474583529525122</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>7.623535835370946</v>
+        <v>10.55432977920544</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[0.0191229782517901, 15.227948692490102]</t>
+          <t>[3.2228155181952083, 17.88584404021568]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.04945062882090778</v>
+        <v>0.005761016708355049</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04945062882090778</v>
+        <v>0.005761016708355049</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.94973718240808</v>
+        <v>-1.685579241565695</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.4340532309510046, -0.4654211338651546]</t>
+          <t>[-2.5912636101681583, -0.779894872963232]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.01119148083301558</v>
+        <v>0.0005052352744980837</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01119148083301558</v>
+        <v>0.0005052352744980837</v>
       </c>
       <c r="T3" t="n">
-        <v>12.85329056456845</v>
+        <v>12.172115585418</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[8.660955707643197, 17.045625421493696]</t>
+          <t>[7.846046306002616, 16.498184864833384]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.71568766749175e-07</v>
+        <v>9.719679829878203e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>1.71568766749175e-07</v>
+        <v>9.719679829878203e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>8.06496496496516</v>
+        <v>6.972292292292462</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.925185185185234</v>
+        <v>3.225985985986064</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.20474474474508</v>
+        <v>10.71859859859886</v>
       </c>
     </row>
     <row r="4">
@@ -759,63 +759,63 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7383299622524367</v>
+        <v>0.3024242636998151</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7383299622524367</v>
+        <v>0.3024242636998151</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>3.111591290551689</v>
+        <v>5.71366487752822</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-7.690282177055079, 13.913464758158458]</t>
+          <t>[-4.687507507140332, 16.114837262196772]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.5646850458635027</v>
+        <v>0.2744309366254445</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5646850458635027</v>
+        <v>0.2744309366254445</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.685579241565695</v>
+        <v>-1.056631763369539</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.824027157764508, 1.4528686746331179]</t>
+          <t>[-4.088158608275006, 1.9748950815359274]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.2851385735604794</v>
+        <v>0.4862875366774628</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2851385735604794</v>
+        <v>0.4862875366774628</v>
       </c>
       <c r="T4" t="n">
-        <v>17.06270539881688</v>
+        <v>13.47152327331916</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[11.208426087727293, 22.916984709906476]</t>
+          <t>[8.061560102548896, 18.88148644408942]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.863517841791065e-07</v>
+        <v>8.739600815266257e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>4.863517841791065e-07</v>
+        <v>8.739600815266257e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>6.972292292292462</v>
+        <v>4.370690690690797</v>
       </c>
       <c r="Y4" t="n">
-        <v>-6.009699699699844</v>
+        <v>-8.169029029029227</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.95428428428477</v>
+        <v>16.91041041041082</v>
       </c>
     </row>
     <row r="5">
@@ -845,63 +845,63 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7590539259104988</v>
+        <v>0.2658703801010942</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7590539259104988</v>
+        <v>0.2658703801010942</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>2.63010279743795</v>
+        <v>6.546209753245985</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-6.997031379040538, 12.257236973916438]</t>
+          <t>[-3.932121041524412, 17.024540548016383]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.5848713205197955</v>
+        <v>0.2147777766543921</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5848713205197955</v>
+        <v>0.2147777766543921</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.012631930227695</v>
+        <v>-2.679316257115619</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-5.151079846426507, 1.1258159859711174]</t>
+          <t>[-5.786316799404624, 0.42768428517338464]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.203087331125378</v>
+        <v>0.08925382909251334</v>
       </c>
       <c r="S5" t="n">
-        <v>0.203087331125378</v>
+        <v>0.08925382909251334</v>
       </c>
       <c r="T5" t="n">
-        <v>14.93813105146852</v>
+        <v>13.48995066804689</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[9.869570997867825, 20.006691105069216]</t>
+          <t>[8.070595431870768, 18.909305904223007]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.885656776336788e-07</v>
+        <v>8.793445091637153e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>3.885656776336788e-07</v>
+        <v>8.793445091637153e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>8.325125125125322</v>
+        <v>11.08282282282309</v>
       </c>
       <c r="Y5" t="n">
-        <v>-4.656866866866981</v>
+        <v>-1.769089089089128</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.30711711711762</v>
+        <v>23.93473473473531</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.86000000000013</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3567271136453359</v>
+        <v>0.7959151895987755</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3567271136453359</v>
+        <v>0.7959151895987755</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>4.159728135172344</v>
+        <v>2.26656814129179</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-3.0570956535816283, 11.376551923926316]</t>
+          <t>[-6.886590639286265, 11.419726921869845]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.2517977923193542</v>
+        <v>0.6203875664188949</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2517977923193542</v>
+        <v>0.6203875664188949</v>
       </c>
       <c r="P6" t="n">
-        <v>-3.069263693597235</v>
+        <v>-2.956053147521928</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-6.207711609796047, 0.06918422260157708]</t>
+          <t>[-6.075632639374855, 0.16352634433099933]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.05504622632488809</v>
+        <v>0.06271437702969229</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05504622632488809</v>
+        <v>0.06271437702969229</v>
       </c>
       <c r="T6" t="n">
-        <v>11.52758037854033</v>
+        <v>13.19354926848678</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[7.363332621476911, 15.691828135603743]</t>
+          <t>[8.32949303850815, 18.057605498465406]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.326437543580639e-06</v>
+        <v>1.94097660322079e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.326437543580639e-06</v>
+        <v>1.94097660322079e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>11.16684684684691</v>
+        <v>10.71731731731738</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.2517117117117138</v>
+        <v>-0.5928728728728743</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.58540540540553</v>
+        <v>22.02750750750763</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.86000000000013</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01092753114853739</v>
+        <v>0.0094021196026155</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01092753114853739</v>
+        <v>0.0094021196026155</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>10.34053816623389</v>
+        <v>9.487365929137539</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[2.212026248775807, 18.469050083691968]</t>
+          <t>[2.3133949543282526, 16.661336903946825]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.01381913970804138</v>
+        <v>0.01068987101943097</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01381913970804138</v>
+        <v>0.01068987101943097</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.956053147521927</v>
+        <v>-2.993789996213696</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-4.075579658711083, -1.836526636332772]</t>
+          <t>[-4.025263860455389, -1.962316131972003]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.167789150992917e-06</v>
+        <v>5.28632907448312e-07</v>
       </c>
       <c r="S7" t="n">
-        <v>3.167789150992917e-06</v>
+        <v>5.28632907448312e-07</v>
       </c>
       <c r="T7" t="n">
-        <v>16.01325918378441</v>
+        <v>11.02801216450458</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[11.266227627456743, 20.76029074011207]</t>
+          <t>[6.7447525035555, 15.311271825453655]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.058845627317396e-08</v>
+        <v>4.945537416922718e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>2.058845627317396e-08</v>
+        <v>4.945537416922718e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>10.75495495495502</v>
+        <v>10.85413413413419</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.681801801801839</v>
+        <v>7.114474474474513</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.82810810810819</v>
+        <v>14.59379379379387</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.86000000000013</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7218370469745605</v>
+        <v>0.5052231019052904</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7218370469745605</v>
+        <v>0.5052231019052904</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>2.253837207735103</v>
+        <v>3.383958448889917</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-5.097330489410172, 9.605004904880378]</t>
+          <t>[-3.9781157779196246, 10.746032675699459]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.5400071229822589</v>
+        <v>0.3595001249926166</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5400071229822589</v>
+        <v>0.3595001249926166</v>
       </c>
       <c r="P8" t="n">
-        <v>3.037816319687427</v>
+        <v>-1.811368737204925</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.08805264694746207, 6.163685286322317]</t>
+          <t>[-4.9498166534037376, 1.3270791789938867]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.05652397561660916</v>
+        <v>0.2511813276406261</v>
       </c>
       <c r="S8" t="n">
-        <v>0.05652397561660916</v>
+        <v>0.2511813276406261</v>
       </c>
       <c r="T8" t="n">
-        <v>10.19001389453205</v>
+        <v>11.73224386236075</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.142644445606528, 14.237383343457577]</t>
+          <t>[7.729321994032675, 15.735165730688829]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>7.262445536060369e-06</v>
+        <v>4.346443223113283e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>7.262445536060369e-06</v>
+        <v>4.346443223113283e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>11.80756756756764</v>
+        <v>6.567207207207243</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.4347747747747768</v>
+        <v>-4.811391391391416</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.1803603603605</v>
+        <v>17.9458058058059</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.86000000000013</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4782253801701852</v>
+        <v>0.3468887279907376</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4782253801701852</v>
+        <v>0.3468887279907376</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>3.522974311910819</v>
+        <v>5.457760003277263</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-4.02603437565126, 11.0719829994729]</t>
+          <t>[-4.096088276864707, 15.011608283419234]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.3522653563627116</v>
+        <v>0.255981470506101</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3522653563627116</v>
+        <v>0.255981470506101</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.012631930227695</v>
+        <v>-1.735895039821387</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-5.151079846426507, 1.1258159859711174]</t>
+          <t>[-4.824027157764506, 1.3522370781217319]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.203087331125378</v>
+        <v>0.2635624334095374</v>
       </c>
       <c r="S9" t="n">
-        <v>0.203087331125378</v>
+        <v>0.2635624334095374</v>
       </c>
       <c r="T9" t="n">
-        <v>12.43333192504883</v>
+        <v>14.66404820672811</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[8.402465725757096, 16.464198124340555]</t>
+          <t>[9.509252329956968, 19.818844083499258]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.508884979184444e-07</v>
+        <v>7.855378907350996e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>1.508884979184444e-07</v>
+        <v>7.855378907350996e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>7.322522522522563</v>
+        <v>6.293573573573607</v>
       </c>
       <c r="Y9" t="n">
-        <v>-4.096036036036061</v>
+        <v>-4.902602602602625</v>
       </c>
       <c r="Z9" t="n">
-        <v>18.74108108108119</v>
+        <v>17.48974974974984</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.86000000000013</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8374859948050791</v>
+        <v>0.07937496323397175</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8374859948050791</v>
+        <v>0.07937496323397175</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>2.287364830771431</v>
+        <v>7.546005484224579</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-7.669750028773936, 12.244479690316798]</t>
+          <t>[-0.6575960908493608, 15.74960705929852]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.645821145788406</v>
+        <v>0.07049724815892744</v>
       </c>
       <c r="O10" t="n">
-        <v>0.645821145788406</v>
+        <v>0.07049724815892744</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.647842392873925</v>
+        <v>-1.798789787641002</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-4.786290309072737, 1.490605523324887]</t>
+          <t>[-3.3837374326953125, -0.21384214258669232]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.2959251409707098</v>
+        <v>0.02702454394217191</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2959251409707098</v>
+        <v>0.02702454394217191</v>
       </c>
       <c r="T10" t="n">
-        <v>14.45751623646423</v>
+        <v>13.15539577982272</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[9.11962184875211, 19.795410624176355]</t>
+          <t>[8.618029762335938, 17.692761797309508]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.994488884271561e-06</v>
+        <v>5.39985329783832e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>1.994488884271561e-06</v>
+        <v>5.39985329783832e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>5.995315315315349</v>
+        <v>6.521601601601635</v>
       </c>
       <c r="Y10" t="n">
-        <v>-5.423243243243276</v>
+        <v>0.7752952952952974</v>
       </c>
       <c r="Z10" t="n">
-        <v>17.41387387387397</v>
+        <v>12.26790790790797</v>
       </c>
     </row>
   </sheetData>
